--- a/import_test/ls_test.xlsx
+++ b/import_test/ls_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43225960-6C3E-C04B-A24B-D8A0650F44F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6746E-F599-EE41-9606-63C01C3620F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="6740" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="5720" yWindow="5380" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1131,32 +1131,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1166,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,22 +1153,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,6 +1166,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1555,109 +1523,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="6" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AB2" s="3"/>
@@ -1665,45 +1633,45 @@
       <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="1:30" ht="17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="4" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
@@ -1719,7 +1687,7 @@
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1734,10 +1702,10 @@
       <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1743,7 @@
       <c r="Z4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="12"/>
+      <c r="AA4" s="7"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
@@ -1791,7 +1759,7 @@
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1806,10 +1774,10 @@
       <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="2">
         <v>18258591581</v>
       </c>
@@ -1847,7 +1815,7 @@
       <c r="Z5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="12"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
@@ -1863,7 +1831,7 @@
       <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1878,10 +1846,10 @@
       <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1919,7 +1887,7 @@
       <c r="Z6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="7"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -1935,7 +1903,7 @@
       <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1950,10 +1918,10 @@
       <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
         <v>73</v>
       </c>
@@ -1991,7 +1959,7 @@
       <c r="Z7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="7"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2007,7 +1975,7 @@
       <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2022,10 +1990,10 @@
       <c r="I8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
         <v>85</v>
       </c>
@@ -2038,7 +2006,7 @@
       <c r="Q8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="2" t="s">
@@ -2061,7 +2029,7 @@
       <c r="Z8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2077,7 +2045,7 @@
       <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2092,10 +2060,10 @@
       <c r="I9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
         <v>98</v>
       </c>
@@ -2133,7 +2101,7 @@
       <c r="Z9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="7"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2149,7 +2117,7 @@
       <c r="D10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2164,10 +2132,10 @@
       <c r="I10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="2" t="s">
         <v>112</v>
       </c>
@@ -2205,7 +2173,7 @@
       <c r="Z10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AA10" s="12"/>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -2221,7 +2189,7 @@
       <c r="D11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2236,10 +2204,10 @@
       <c r="I11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="2" t="s">
         <v>126</v>
       </c>
@@ -2277,7 +2245,7 @@
       <c r="Z11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA11" s="12"/>
+      <c r="AA11" s="7"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
@@ -2293,7 +2261,7 @@
       <c r="D12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2308,10 +2276,10 @@
       <c r="I12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="2" t="s">
         <v>137</v>
       </c>
@@ -2349,7 +2317,7 @@
       <c r="Z12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA12" s="12"/>
+      <c r="AA12" s="7"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -2365,7 +2333,7 @@
       <c r="D13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2380,10 +2348,10 @@
       <c r="I13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2" t="s">
         <v>150</v>
       </c>
@@ -2421,7 +2389,7 @@
       <c r="Z13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA13" s="12"/>
+      <c r="AA13" s="7"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -2437,7 +2405,7 @@
       <c r="D14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2452,10 +2420,10 @@
       <c r="I14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2" t="s">
         <v>162</v>
       </c>
@@ -2493,7 +2461,7 @@
       <c r="Z14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="7"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -2509,7 +2477,7 @@
       <c r="D15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2530,8 +2498,8 @@
       <c r="K15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="2" t="s">
         <v>180</v>
       </c>
@@ -2606,8 +2574,8 @@
       <c r="K16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="2" t="s">
         <v>195</v>
       </c>
@@ -2661,7 +2629,7 @@
       <c r="D17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>205</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2682,8 +2650,8 @@
       <c r="K17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="2" t="s">
         <v>209</v>
       </c>
@@ -2737,7 +2705,7 @@
       <c r="D18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="6" t="s">
         <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2758,8 +2726,8 @@
       <c r="K18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="2" t="s">
         <v>223</v>
       </c>
@@ -2813,7 +2781,7 @@
       <c r="D19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2834,8 +2802,8 @@
       <c r="K19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="2" t="s">
         <v>238</v>
       </c>
@@ -2889,7 +2857,7 @@
       <c r="D20" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>248</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2910,8 +2878,8 @@
       <c r="K20" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="2" t="s">
         <v>252</v>
       </c>
@@ -2965,7 +2933,7 @@
       <c r="D21" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="6" t="s">
         <v>261</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2986,8 +2954,8 @@
       <c r="K21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="2" t="s">
         <v>264</v>
       </c>
@@ -3060,8 +3028,8 @@
       <c r="K22" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="2" t="s">
         <v>278</v>
       </c>
@@ -3136,8 +3104,8 @@
       <c r="K23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="2" t="s">
         <v>290</v>
       </c>
@@ -3191,7 +3159,7 @@
       <c r="D24" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3212,8 +3180,8 @@
       <c r="K24" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="2" t="s">
         <v>304</v>
       </c>
@@ -3267,7 +3235,7 @@
       <c r="D25" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="6" t="s">
         <v>311</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -3288,8 +3256,8 @@
       <c r="K25" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="2" t="s">
         <v>315</v>
       </c>
@@ -3334,6 +3302,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3350,13 +3325,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/ls_test.xlsx
+++ b/import_test/ls_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2676E-CF7B-3E44-8BFC-FBCB88D60DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4505EF-DC90-45C1-B4A8-D7246EE4A9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="5380" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1166,13 +1166,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1493,154 +1493,154 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="H5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="6" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1659,11 +1659,11 @@
       <c r="X3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" ht="68">
+    <row r="4" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>25</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="85">
+    <row r="5" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="68">
+    <row r="6" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="68">
+    <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="68">
+    <row r="8" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="68">
+    <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="85">
+    <row r="10" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="68">
+    <row r="11" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="68">
+    <row r="12" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="68">
+    <row r="13" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="68">
+    <row r="14" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="51">
+    <row r="15" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>25</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="51">
+    <row r="16" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27" ht="68">
+    <row r="17" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="51">
+    <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="68">
+    <row r="19" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="51">
+    <row r="20" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27" ht="68">
+    <row r="21" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -2929,7 +2929,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="68">
+    <row r="22" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="51">
+    <row r="23" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="102">
+    <row r="24" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>25</v>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="119">
+    <row r="25" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>25</v>
@@ -3223,6 +3223,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
@@ -3239,13 +3246,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/ls_test.xlsx
+++ b/import_test/ls_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPlace\台胞项目\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4505EF-DC90-45C1-B4A8-D7246EE4A9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237572AB-069B-4BA9-A6DA-ADDB530A4F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,9 +71,6 @@
   </si>
   <si>
     <t>硕士就读专业</t>
-  </si>
-  <si>
-    <t>手机号码</t>
   </si>
   <si>
     <t>参加社团及职务</t>
@@ -1023,6 +1018,10 @@
       </rPr>
       <t>取院校</t>
     </r>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1166,13 +1165,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1492,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:XFD1048576"/>
+      <selection activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1519,35 +1518,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1566,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>8</v>
@@ -1590,36 +1589,36 @@
         <v>12</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -1642,22 +1641,22 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -1666,97 +1665,97 @@
     <row r="4" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="X4" s="3">
         <v>15958575301</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1766,1470 +1765,1463 @@
         <v>18258591581</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="U5" s="3">
         <v>86229207</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="U6" s="3">
         <v>13858597508</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="Q9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="Y11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="Y12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="X13" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Y13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="Y14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="Q15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="Q17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z18" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="Q19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="Q20" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="Y22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="Y23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="Q24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="U24" s="3">
         <v>13857516199</v>
       </c>
       <c r="V24" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="X24" s="3">
         <v>13819563266</v>
       </c>
       <c r="Y24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="U25" s="3">
         <v>13001008558</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X25" s="3">
         <v>18763975797</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
@@ -3246,8 +3238,16 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>